--- a/ConfigData/Xlsx/TournamentMatch.xlsx
+++ b/ConfigData/Xlsx/TournamentMatch.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="TournamentMatch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -17,30 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>左玩家类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>左玩家id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>右玩家类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>右玩家id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -65,27 +46,42 @@
     <t>RightValue</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>序列</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>比赛id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>左玩家类型</t>
+  </si>
+  <si>
+    <t>左玩家id</t>
+  </si>
+  <si>
+    <t>右玩家类型</t>
+  </si>
+  <si>
+    <t>右玩家id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,24 +704,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -740,50 +736,124 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H107" totalsRowShown="0">
-  <autoFilter ref="A1:H107">
-    <filterColumn colId="0"/>
-  </autoFilter>
+  <autoFilter ref="A1:H107"/>
   <tableColumns count="8">
-    <tableColumn id="8" name="Id"/>
-    <tableColumn id="1" name="Tid"/>
-    <tableColumn id="2" name="Offset"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="LeftType"/>
-    <tableColumn id="5" name="LeftValue"/>
-    <tableColumn id="6" name="RightType"/>
-    <tableColumn id="7" name="RightValue"/>
+    <tableColumn id="8" name="序列"/>
+    <tableColumn id="1" name="比赛id"/>
+    <tableColumn id="2" name="偏移"/>
+    <tableColumn id="3" name="开始日期"/>
+    <tableColumn id="4" name="左玩家类型"/>
+    <tableColumn id="5" name="左玩家id"/>
+    <tableColumn id="6" name="右玩家类型"/>
+    <tableColumn id="7" name="右玩家id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -818,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,9 +920,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,6 +972,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1059,99 +1165,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A107"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1178,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0">ROW()-3</f>
         <v>2</v>
@@ -1205,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1232,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1259,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1286,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1313,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1340,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1367,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1394,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1421,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1448,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1475,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1502,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1529,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1556,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1583,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1610,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1637,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1664,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1691,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1718,7 +1824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1745,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1772,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1799,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1826,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1853,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1880,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1907,7 +2013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1934,7 +2040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1961,7 +2067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1988,7 +2094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2015,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2042,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2069,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2096,7 +2202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2123,7 +2229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2150,7 +2256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2177,7 +2283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2204,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2231,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2258,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2285,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2312,7 +2418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2339,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2366,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2393,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2420,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2447,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2474,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2501,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2528,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2555,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2582,7 +2688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2609,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2636,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2663,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2690,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2717,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2744,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2771,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2798,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2825,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2852,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2879,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2906,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" ref="A69:A107" si="1">ROW()-3</f>
         <v>66</v>
@@ -2933,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2960,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2987,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3014,7 +3120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3041,7 +3147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3068,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3095,7 +3201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3122,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3149,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3176,7 +3282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3203,7 +3309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3230,7 +3336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3257,7 +3363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3284,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3311,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3338,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3365,7 +3471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3392,7 +3498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3419,7 +3525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3446,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3473,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3500,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3527,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3554,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3581,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3608,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3635,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3662,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3689,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3716,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3743,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3770,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -3797,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -3824,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3851,7 +3957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3878,7 +3984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -3905,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -3932,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>104</v>
